--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1575"/>
+  <dimension ref="A1:G1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38268,10 +38268,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1455" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1456">
@@ -38305,10 +38303,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1456" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -38342,10 +38338,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1457" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -38379,10 +38373,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -38412,10 +38404,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -38449,10 +38439,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -38482,10 +38470,8 @@
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -38515,10 +38501,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -38544,10 +38528,8 @@
       </c>
       <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -38573,10 +38555,8 @@
       </c>
       <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -38602,10 +38582,8 @@
       </c>
       <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -38631,10 +38609,8 @@
       </c>
       <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -38660,10 +38636,8 @@
       </c>
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -38689,34 +38663,44 @@
       </c>
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
+        </is>
+      </c>
       <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Cook Speech</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr"/>
@@ -38732,12 +38716,12 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr"/>
@@ -38753,12 +38737,12 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
@@ -38774,81 +38758,69 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr"/>
       <c r="C1473" t="inlineStr"/>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1473" t="inlineStr"/>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr"/>
       <c r="C1474" t="inlineStr"/>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr"/>
@@ -38862,18 +38834,18 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>4.090%</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr"/>
@@ -38887,12 +38859,12 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
@@ -38901,25 +38873,33 @@
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Monthly Budget StatementAPR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
           <t>2</t>
@@ -38929,167 +38909,219 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr"/>
       <c r="C1480" t="inlineStr"/>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1480" t="inlineStr"/>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexAPR</t>
+        </is>
+      </c>
       <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>97.4</t>
+        </is>
+      </c>
       <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>91.5</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMAPR</t>
+        </is>
+      </c>
       <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr"/>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1484" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
+      <c r="F1485" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr"/>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>319.799</t>
+        </is>
+      </c>
       <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>321.7</t>
+        </is>
+      </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>320.6</t>
         </is>
       </c>
       <c r="G1487" t="inlineStr">
@@ -39101,39 +39133,47 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
+          <t>07:55 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>Redbook YoYMAY/10</t>
+        </is>
+      </c>
       <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>$18.04T</t>
         </is>
       </c>
       <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
+      <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -39143,200 +39183,156 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.820%</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr"/>
+      <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.49M</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr"/>
       <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1492" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1492" t="inlineStr"/>
+      <c r="E1492" t="inlineStr"/>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr"/>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>248.4</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
@@ -39350,18 +39346,18 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>162.8</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
@@ -39375,43 +39371,43 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
@@ -39425,56 +39421,68 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>0.673M</t>
+        </is>
+      </c>
       <c r="E1500" t="inlineStr"/>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr"/>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>-0.74M</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr"/>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr"/>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr"/>
@@ -39488,18 +39496,18 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr"/>
@@ -39513,18 +39521,18 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr"/>
@@ -39538,18 +39546,18 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>0.123M</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr"/>
@@ -39568,263 +39576,279 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>-0.007M</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr">
-        <is>
-          <t>0.673M</t>
-        </is>
-      </c>
+      <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr"/>
       <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr">
-        <is>
-          <t>-0.74M</t>
-        </is>
-      </c>
+      <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr"/>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
+      <c r="F1510" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr"/>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr"/>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr"/>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>228K</t>
         </is>
       </c>
       <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>220.0K</t>
+        </is>
+      </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr"/>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr"/>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-26.4</t>
         </is>
       </c>
       <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1516" t="inlineStr">
         <is>
           <t>2</t>
@@ -39834,15 +39858,31 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMAPR</t>
+        </is>
+      </c>
       <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
@@ -39852,24 +39892,24 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr"/>
       <c r="D1518" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -39881,24 +39921,24 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr"/>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -39910,24 +39950,24 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr"/>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -39939,20 +39979,20 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr"/>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -39964,24 +40004,20 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr"/>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -39993,24 +40029,20 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr"/>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>-26.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -40022,24 +40054,20 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr"/>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -40051,24 +40079,20 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr"/>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -40080,17 +40104,21 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr"/>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>1879K</t>
+          <t>147.464</t>
         </is>
       </c>
       <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1526" t="inlineStr">
         <is>
           <t>3</t>
@@ -40105,19 +40133,19 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1527" t="inlineStr">
@@ -40134,17 +40162,21 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1528" t="inlineStr">
         <is>
           <t>3</t>
@@ -40159,17 +40191,21 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1529" t="inlineStr">
         <is>
           <t>3</t>
@@ -40184,17 +40220,21 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1530" t="inlineStr">
         <is>
           <t>3</t>
@@ -40209,17 +40249,21 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1531" t="inlineStr">
         <is>
           <t>3</t>
@@ -40229,47 +40273,55 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr"/>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1533" t="inlineStr">
         <is>
           <t>3</t>
@@ -40279,24 +40331,24 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr"/>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>147.76</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1534" t="inlineStr">
@@ -40308,24 +40360,24 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr"/>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1535" t="inlineStr">
@@ -40337,24 +40389,24 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr"/>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1536" t="inlineStr">
@@ -40366,82 +40418,86 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr"/>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr"/>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr"/>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1539" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1539" t="inlineStr">
@@ -40453,55 +40509,47 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr"/>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr"/>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr">
         <is>
           <t>3</t>
@@ -40511,26 +40559,22 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr"/>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
           <t>3</t>
@@ -40540,26 +40584,22 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr"/>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr">
         <is>
           <t>3</t>
@@ -40569,26 +40609,22 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr"/>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr">
         <is>
           <t>3</t>
@@ -40598,251 +40634,259 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr"/>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+      <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr"/>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>104Bcf</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>1.324M</t>
+        </is>
+      </c>
       <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/14</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1554" t="inlineStr">
         <is>
           <t>3</t>
@@ -40852,37 +40896,53 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Import Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Building Permits PrelAPR</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr">
         <is>
-          <t>1.45M</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G1556" t="inlineStr">
@@ -40894,171 +40954,155 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr"/>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -41068,84 +41112,72 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr"/>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr"/>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr"/>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
           <t>3</t>
@@ -41155,232 +41187,28 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
+          <t>Sunday May 18 2025</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr"/>
       <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
+      <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr"/>
       <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
+      <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>Sunday May 18 2025</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr"/>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr"/>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1624"/>
+  <dimension ref="A1:G1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40032,80 +40032,76 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C1525" t="inlineStr"/>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr"/>
       <c r="C1526" t="inlineStr"/>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1526" t="inlineStr"/>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
+      <c r="D1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
@@ -40121,13 +40117,13 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr"/>
@@ -40141,16 +40137,20 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>4.090%</t>
+        </is>
+      </c>
       <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr">
@@ -40162,108 +40162,100 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
+      <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementAPR</t>
+        </is>
+      </c>
       <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>$255B</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
       <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>94.5</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr">
-        <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1533" t="inlineStr"/>
+      <c r="E1533" t="inlineStr"/>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>NFIB Business Optimism IndexAPR</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr"/>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>94.5</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>93.5</t>
         </is>
       </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -40275,19 +40267,23 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Core Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr"/>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1535" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1535" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1535" t="inlineStr">
@@ -40304,23 +40300,19 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr"/>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1536" t="inlineStr">
@@ -40337,23 +40329,23 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr"/>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1537" t="inlineStr">
@@ -40370,24 +40362,28 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr"/>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1538" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>321.4</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40399,19 +40395,19 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr"/>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>319.799</t>
         </is>
       </c>
       <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>321.4</t>
         </is>
       </c>
       <c r="G1539" t="inlineStr">
@@ -40423,43 +40419,47 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr"/>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>320.6</t>
+        </is>
+      </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Redbook YoYMAY/10</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr"/>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr"/>
@@ -40473,18 +40473,18 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr"/>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$18.04T</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr"/>
@@ -40498,79 +40498,79 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr"/>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>3.820%</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr"/>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>-4.49M</t>
+        </is>
+      </c>
       <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr"/>
       <c r="C1545" t="inlineStr"/>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
@@ -40587,20 +40587,20 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40612,13 +40612,13 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr"/>
@@ -40637,13 +40637,13 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>248.4</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr"/>
@@ -40662,13 +40662,13 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr"/>
@@ -40682,41 +40682,41 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>08:10 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr"/>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>162.8</t>
+        </is>
+      </c>
       <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:10 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
@@ -40733,13 +40733,13 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
       <c r="D1553" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E1553" t="inlineStr"/>
@@ -40758,20 +40758,20 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40783,13 +40783,13 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>0.673M</t>
         </is>
       </c>
       <c r="E1555" t="inlineStr"/>
@@ -40808,13 +40808,13 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.74M</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr"/>
@@ -40833,13 +40833,13 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr"/>
@@ -40858,13 +40858,13 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr"/>
@@ -40883,13 +40883,13 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr"/>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E1559" t="inlineStr"/>
@@ -40908,13 +40908,13 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>0.123M</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr"/>
@@ -40928,18 +40928,18 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-0.007M</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr"/>
@@ -40953,69 +40953,61 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr"/>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>4.200%</t>
+        </is>
+      </c>
       <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
       <c r="C1563" t="inlineStr"/>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr"/>
       <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
@@ -41025,23 +41017,23 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr"/>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1565" t="inlineStr">
@@ -41058,28 +41050,28 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr"/>
       <c r="D1566" t="inlineStr">
         <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41091,23 +41083,23 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr"/>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>230K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1567" t="inlineStr">
@@ -41124,23 +41116,23 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>228K</t>
         </is>
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>230K</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G1568" t="inlineStr">
@@ -41157,23 +41149,23 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr"/>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>-26.4</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-7.1</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-7.6</t>
         </is>
       </c>
       <c r="G1569" t="inlineStr">
@@ -41190,19 +41182,23 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr"/>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1570" t="inlineStr"/>
+          <t>-26.4</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G1570" t="inlineStr">
@@ -41219,23 +41215,19 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr"/>
       <c r="D1571" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1571" t="inlineStr">
@@ -41252,24 +41244,28 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr"/>
       <c r="D1572" t="inlineStr">
         <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>1875.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41281,19 +41277,19 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr"/>
       <c r="D1573" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G1573" t="inlineStr">
@@ -41310,19 +41306,19 @@
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr"/>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1574" t="inlineStr"/>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
@@ -41339,17 +41335,21 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr"/>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
           <t>3</t>
@@ -41364,13 +41364,13 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr"/>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr"/>
@@ -41389,13 +41389,13 @@
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr"/>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1577" t="inlineStr"/>
@@ -41414,13 +41414,13 @@
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr"/>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr"/>
@@ -41439,13 +41439,13 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr"/>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr"/>
@@ -41464,21 +41464,17 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr"/>
       <c r="D1580" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
+      <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
           <t>3</t>
@@ -41493,19 +41489,19 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr"/>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.464</t>
         </is>
       </c>
       <c r="E1581" t="inlineStr"/>
       <c r="F1581" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.76</t>
         </is>
       </c>
       <c r="G1581" t="inlineStr">
@@ -41522,19 +41518,19 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr"/>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1582" t="inlineStr">
@@ -41551,19 +41547,19 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr"/>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1583" t="inlineStr"/>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1583" t="inlineStr">
@@ -41580,19 +41576,19 @@
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr"/>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E1584" t="inlineStr"/>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G1584" t="inlineStr">
@@ -41609,19 +41605,19 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr"/>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1585" t="inlineStr"/>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1585" t="inlineStr">
@@ -41633,54 +41629,50 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>07:40 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr"/>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:40 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1587" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1587" t="inlineStr"/>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41692,28 +41684,28 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr"/>
       <c r="D1588" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41725,19 +41717,23 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr"/>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1589" t="inlineStr"/>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G1589" t="inlineStr">
@@ -41754,19 +41750,19 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr"/>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1590" t="inlineStr"/>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1590" t="inlineStr">
@@ -41783,19 +41779,19 @@
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr"/>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
@@ -41807,33 +41803,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr"/>
       <c r="D1592" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1592" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr"/>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41845,23 +41837,23 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
@@ -41878,50 +41870,58 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1595" t="inlineStr">
         <is>
           <t>3</t>
@@ -41931,18 +41931,18 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr"/>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -41961,7 +41961,7 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr"/>
@@ -41981,18 +41981,18 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr"/>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1598" t="inlineStr"/>
@@ -42011,13 +42011,13 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr"/>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr"/>
@@ -42036,11 +42036,15 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr"/>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1600" t="inlineStr"/>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
@@ -42052,12 +42056,12 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>01:05 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr"/>
@@ -42066,80 +42070,68 @@
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:05 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/14</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+      <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAY/14</t>
+        </is>
+      </c>
       <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr"/>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>$6.71T</t>
+        </is>
+      </c>
       <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
       <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>1.450M</t>
-        </is>
-      </c>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1604" t="inlineStr"/>
+      <c r="E1604" t="inlineStr"/>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
@@ -42149,23 +42141,23 @@
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>1.36M</t>
+          <t>1.450M</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
@@ -42182,24 +42174,28 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1606" t="inlineStr"/>
+          <t>1.324M</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>1.36M</t>
+        </is>
+      </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42211,19 +42207,19 @@
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr"/>
       <c r="D1607" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
@@ -42240,19 +42236,19 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr"/>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
@@ -42269,23 +42265,19 @@
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr"/>
       <c r="D1609" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>-11.4%</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G1609" t="inlineStr">
@@ -42302,24 +42294,28 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr"/>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1610" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42331,19 +42327,19 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr"/>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1611" t="inlineStr"/>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
@@ -42355,33 +42351,29 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1612" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr"/>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42393,24 +42385,28 @@
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42422,19 +42418,19 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
@@ -42451,19 +42447,19 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
@@ -42480,19 +42476,19 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr"/>
       <c r="D1616" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
@@ -42504,18 +42500,26 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr"/>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr"/>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1617" t="inlineStr">
         <is>
           <t>3</t>
@@ -42530,7 +42534,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr"/>
@@ -42546,25 +42550,21 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAR</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
+      <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42576,20 +42576,20 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>$106.2B</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42601,13 +42601,13 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr"/>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1621" t="inlineStr"/>
@@ -42621,20 +42621,32 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>Sunday May 18 2025</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAR</t>
+        </is>
+      </c>
       <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr"/>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1622" t="inlineStr"/>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>Monday May 19 2025</t>
+          <t>Sunday May 18 2025</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr"/>
@@ -42647,27 +42659,40 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr"/>
+      <c r="C1624" t="inlineStr"/>
+      <c r="D1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr"/>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
           <t>09:00 AM</t>
         </is>
       </c>
-      <c r="B1624" t="inlineStr">
+      <c r="B1625" t="inlineStr">
         <is>
           <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr">
+      <c r="C1625" t="inlineStr"/>
+      <c r="D1625" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr">
+      <c r="E1625" t="inlineStr"/>
+      <c r="F1625" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G1624" t="inlineStr">
+      <c r="G1625" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1625"/>
+  <dimension ref="A1:G1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41672,7 +41672,7 @@
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42698,6 +42698,48 @@
         </is>
       </c>
     </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr"/>
+      <c r="D1626" t="inlineStr"/>
+      <c r="E1626" t="inlineStr"/>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr"/>
+      <c r="D1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr"/>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -39914,7 +39914,11 @@
           <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
-      <c r="C1519" t="inlineStr"/>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
       <c r="D1519" t="inlineStr">
         <is>
           <t>479</t>
@@ -39939,7 +39943,11 @@
           <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
-      <c r="C1520" t="inlineStr"/>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
       <c r="D1520" t="inlineStr">
         <is>
           <t>584</t>
@@ -42538,7 +42546,11 @@
         </is>
       </c>
       <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr"/>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
       <c r="E1618" t="inlineStr"/>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
@@ -42559,7 +42571,11 @@
         </is>
       </c>
       <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr"/>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
       <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
